--- a/MATLAB/Structures/HW5_P1_OutputResults.xlsx
+++ b/MATLAB/Structures/HW5_P1_OutputResults.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>Layup ID:</t>
   </si>
@@ -730,7 +730,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="135">
+  <borders count="193">
     <border>
       <left/>
       <right/>
@@ -1004,11 +1004,69 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1254,6 +1312,64 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="192" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2100,7 +2216,7 @@
       </c>
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
-      <c r="H46" s="175" t="s">
+      <c r="H46" s="233" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2113,12 +2229,12 @@
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="171" t="s">
+      <c r="E47" s="229" t="s">
         <v>65</v>
       </c>
       <c r="F47" s="40"/>
       <c r="G47" s="40"/>
-      <c r="H47" s="175" t="s">
+      <c r="H47" s="233" t="s">
         <v>67</v>
       </c>
       <c r="I47" s="3"/>

--- a/MATLAB/Structures/HW5_P1_OutputResults.xlsx
+++ b/MATLAB/Structures/HW5_P1_OutputResults.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
   <si>
     <t>Layup ID:</t>
   </si>
@@ -730,7 +730,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="193">
+  <borders count="303">
     <border>
       <left/>
       <right/>
@@ -1062,11 +1062,121 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1370,6 +1480,116 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="190" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="191" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="229" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="231" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="232" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="235" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="236" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="237" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="238" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="239" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="242" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="243" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="244" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="245" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="246" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="249" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="250" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="251" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="252" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="253" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="256" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="257" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="258" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="259" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="260" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="261" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="262" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="263" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="264" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="265" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="266" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="267" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="268" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="269" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="270" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="271" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="272" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="273" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="274" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="275" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="276" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="277" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="278" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="279" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="280" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="281" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="282" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="283" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="284" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="285" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="286" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="287" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="288" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="289" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="290" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="291" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="292" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="293" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="294" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="295" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="296" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="297" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="298" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="299" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="300" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="301" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="302" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1684,13 +1904,13 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.15625" customWidth="true"/>
-    <col min="2" max="2" width="6.7109375" customWidth="true"/>
+    <col min="2" max="2" width="6.82421875" customWidth="true"/>
     <col min="3" max="3" width="2.15625" customWidth="true"/>
     <col min="4" max="4" width="4.7109375" customWidth="true"/>
-    <col min="5" max="5" width="58.6015625" customWidth="true"/>
+    <col min="5" max="5" width="4.7109375" customWidth="true"/>
     <col min="6" max="6" width="9.046875" customWidth="true"/>
-    <col min="7" max="7" width="5.7109375" customWidth="true"/>
-    <col min="8" max="8" width="6.48828125" customWidth="true"/>
+    <col min="7" max="7" width="6.7109375" customWidth="true"/>
+    <col min="8" max="8" width="6.7109375" customWidth="true"/>
     <col min="9" max="9" width="4.7109375" customWidth="true"/>
   </cols>
   <sheetData>
@@ -1805,31 +2025,31 @@
     </row>
     <row r="19" ht="21.3" customHeight="true">
       <c r="A19" s="21">
-        <v>550194.19991596998</v>
+        <v>956783.49164756003</v>
       </c>
       <c r="B19" s="22">
-        <v>105692.80738256557</v>
+        <v>451667.21257779247</v>
       </c>
       <c r="C19" s="23">
         <v>0</v>
       </c>
       <c r="D19" s="30">
-        <v>2.0463630789890885e-12</v>
+        <v>2.2737367544323206e-12</v>
       </c>
       <c r="E19" s="31">
-        <v>2.2737367544323206e-13</v>
+        <v>1.1368683772161603e-12</v>
       </c>
       <c r="F19" s="32">
         <v>0</v>
       </c>
       <c r="G19" s="30">
-        <v>69.936697804736696</v>
+        <v>172.32214215525715</v>
       </c>
       <c r="H19" s="31">
-        <v>38.780284561538565</v>
+        <v>121.10508789169123</v>
       </c>
       <c r="I19" s="32">
-        <v>9.3087147180843068</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1"/>
       <c r="L19" s="1"/>
@@ -1837,31 +2057,31 @@
     </row>
     <row r="20" ht="21.3" customHeight="true">
       <c r="A20" s="24">
-        <v>105692.80738256557</v>
+        <v>451667.21257779247</v>
       </c>
       <c r="B20" s="25">
-        <v>364019.90555428364</v>
+        <v>956783.49164756003</v>
       </c>
       <c r="C20" s="26">
         <v>0</v>
       </c>
       <c r="D20" s="33">
-        <v>2.2737367544323206e-13</v>
+        <v>1.1368683772161603e-12</v>
       </c>
       <c r="E20" s="34">
-        <v>2.2737367544323206e-13</v>
+        <v>2.2737367544323206e-12</v>
       </c>
       <c r="F20" s="35">
         <v>0</v>
       </c>
       <c r="G20" s="33">
-        <v>38.780284561538565</v>
+        <v>121.10508789169123</v>
       </c>
       <c r="H20" s="34">
-        <v>87.00267478789128</v>
+        <v>172.32214215525715</v>
       </c>
       <c r="I20" s="35">
-        <v>9.3087147180843068</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1"/>
       <c r="L20" s="1"/>
@@ -1875,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="29">
-        <v>133804.7484508538</v>
+        <v>185038.75968992253</v>
       </c>
       <c r="D21" s="36">
         <v>0</v>
@@ -1884,16 +2104,16 @@
         <v>0</v>
       </c>
       <c r="F21" s="38">
-        <v>3.4106051316484809e-13</v>
+        <v>5.6843418860808015e-13</v>
       </c>
       <c r="G21" s="36">
-        <v>9.3087147180843104</v>
+        <v>0</v>
       </c>
       <c r="H21" s="37">
-        <v>9.3087147180843104</v>
+        <v>0</v>
       </c>
       <c r="I21" s="38">
-        <v>44.636938950765284</v>
+        <v>65.557493540051667</v>
       </c>
       <c r="J21" s="1"/>
       <c r="L21" s="1"/>
@@ -1915,7 +2135,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="47">
-        <v>-94.480938519713035</v>
+        <v>-2477.6722349601487</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>15</v>
@@ -1924,7 +2144,7 @@
         <v>38</v>
       </c>
       <c r="F24" s="47">
-        <v>5.9631119486702744e-17</v>
+        <v>-3.8163916471489756e-15</v>
       </c>
       <c r="G24" s="42" t="s">
         <v>41</v>
@@ -1935,13 +2155,13 @@
         <v>36</v>
       </c>
       <c r="B25" s="47">
-        <v>-165.76367940786503</v>
+        <v>-3138.5249481384435</v>
       </c>
       <c r="E25" s="45" t="s">
         <v>39</v>
       </c>
       <c r="F25" s="47">
-        <v>-5.3668007538032469e-16</v>
+        <v>-9.540979117872439e-15</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="true" ht="21.3" customHeight="true">
@@ -1949,13 +2169,13 @@
         <v>37</v>
       </c>
       <c r="B26" s="47">
-        <v>-7.6327832942979512e-15</v>
+        <v>-1.2212453270876722e-13</v>
       </c>
       <c r="E26" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F26" s="47">
-        <v>-5.9631119486702744e-17</v>
+        <v>-4.7704895589362195e-16</v>
       </c>
     </row>
     <row r="27" s="3" customFormat="true" ht="19.2" customHeight="true"/>
@@ -2028,7 +2248,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="19">
-        <v>0.00056896042094649291</v>
+        <v>-0.0013385635712093306</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>22</v>
@@ -2037,7 +2257,7 @@
         <v>9</v>
       </c>
       <c r="F32" s="19">
-        <v>-0.076862592610852959</v>
+        <v>-0.045865492962009917</v>
       </c>
       <c r="G32" s="51" t="s">
         <v>14</v>
@@ -2048,13 +2268,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="19">
-        <v>-7.1146393897967859e-05</v>
+        <v>-0.0026478714287906692</v>
       </c>
       <c r="E33" s="46" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="19">
-        <v>0.033288215165979976</v>
+        <v>0.032233492962009919</v>
       </c>
     </row>
     <row r="34" s="3" customFormat="true" ht="21.3" customHeight="true">
@@ -2062,13 +2282,13 @@
         <v>6</v>
       </c>
       <c r="B34" s="19">
-        <v>-8.0206741321502612e-20</v>
+        <v>-6.59994332611268e-19</v>
       </c>
       <c r="E34" s="46" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="19">
-        <v>0.0090871251072985135</v>
+        <v>-7.2768028509536187e-18</v>
       </c>
     </row>
     <row r="35" ht="10.05" customHeight="true">
@@ -2097,7 +2317,7 @@
         <v>10</v>
       </c>
       <c r="B38" s="39">
-        <v>-6593.1163179096693</v>
+        <v>-36867.63565891474</v>
       </c>
       <c r="C38" s="54" t="s">
         <v>28</v>
@@ -2108,7 +2328,7 @@
         <v>11</v>
       </c>
       <c r="B39" s="39">
-        <v>5900.1514553082416</v>
+        <v>29217.635658914769</v>
       </c>
     </row>
     <row r="40" s="3" customFormat="true" ht="21.3" customHeight="true">
@@ -2116,7 +2336,7 @@
         <v>12</v>
       </c>
       <c r="B40" s="39">
-        <v>-1562.9093406921988</v>
+        <v>-252.67186089905795</v>
       </c>
     </row>
     <row r="41" s="3" customFormat="true" ht="21.3" customHeight="true"/>
@@ -2209,14 +2429,14 @@
         <v>42</v>
       </c>
       <c r="B46" s="52">
-        <v>569</v>
+        <v>1</v>
       </c>
       <c r="E46" s="43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
-      <c r="H46" s="233" t="s">
+      <c r="H46" s="329" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2225,16 +2445,16 @@
         <v>58</v>
       </c>
       <c r="B47" s="53">
-        <v>284.5</v>
+        <v>0.5</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="229" t="s">
+      <c r="E47" s="325" t="s">
         <v>65</v>
       </c>
       <c r="F47" s="40"/>
       <c r="G47" s="40"/>
-      <c r="H47" s="233" t="s">
+      <c r="H47" s="329" t="s">
         <v>67</v>
       </c>
       <c r="I47" s="3"/>
@@ -2246,7 +2466,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="43">
-        <v>-0.014999999999999998</v>
+        <v>-0.024999999999999994</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
